--- a/restaurant-visits-1-100.xlsx
+++ b/restaurant-visits-1-100.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hughkim/Documents/1 Northeastern/2025SU/CS5200/practicum1/CS5200.Practicum-I.KimH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B60134-0C22-694B-8490-1AFF9C2D145F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8936A0-BC73-824A-B658-47A6786F5881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{F15BACAC-ABEA-FB4B-BC26-74049818462C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16660" xr2:uid="{F15BACAC-ABEA-FB4B-BC26-74049818462C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$141</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1098,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4231AB3F-D8EB-6D40-8979-54432EF116A4}">
   <dimension ref="A1:Y141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10732,6 +10735,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Y141" xr:uid="{4231AB3F-D8EB-6D40-8979-54432EF116A4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>